--- a/HRMS/MstEmployeeOfficialInfo.xlsx
+++ b/HRMS/MstEmployeeOfficialInfo.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$102</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="192">
   <si>
     <t>Table Name - MstEmployeeOfficialInfo</t>
   </si>
@@ -368,13 +371,235 @@
   </si>
   <si>
     <t>IsSameAppointment</t>
+  </si>
+  <si>
+    <t>Primary id for auto increatment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get EmpRegId  (MstEmployeeRegistration) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get TypeOfPostId  (MstPostType) in Numaric </t>
+  </si>
+  <si>
+    <t>Get PostingOfficeId  (MstEmployeeRegistration) in Numaric *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get DesignationId  (MstDesignation) in Numaric </t>
+  </si>
+  <si>
+    <t>Get EmployeeClassId  ( ) in Numaric  *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Pay_Commission_Id  (MstPayCommission) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Grad_PayId  (MstGradePay) in Numaric </t>
+  </si>
+  <si>
+    <t>Get EmpSectionId  ( ) in Numaric  *</t>
+  </si>
+  <si>
+    <t>For active or inactive record.</t>
+  </si>
+  <si>
+    <t>For  EPF Check.</t>
+  </si>
+  <si>
+    <t>For  NPS Check.</t>
+  </si>
+  <si>
+    <t>Take EPFNumber as String.</t>
+  </si>
+  <si>
+    <t>Take NPSNumber as String.</t>
+  </si>
+  <si>
+    <t>Take UANNumber as String.</t>
+  </si>
+  <si>
+    <t>Take EGLSNumber as String.</t>
+  </si>
+  <si>
+    <t>Take EDLINumber as String.</t>
+  </si>
+  <si>
+    <t>Take GPFNO as String.</t>
+  </si>
+  <si>
+    <t>Take ESICNumber as String.</t>
+  </si>
+  <si>
+    <t>Take GroupInsuranceNumber as String.</t>
+  </si>
+  <si>
+    <t>Take DeputationDepartmentName as String.</t>
+  </si>
+  <si>
+    <t>Take GratuityNumber as String.</t>
+  </si>
+  <si>
+    <t>Keep IP Address of User System.</t>
+  </si>
+  <si>
+    <t>Get Login UserId .</t>
+  </si>
+  <si>
+    <t>Get Current Datetime when user Insert Record.</t>
+  </si>
+  <si>
+    <t>Take BasicPay as Decimal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get PayScaleId  (MstPayScale) in Numaric </t>
+  </si>
+  <si>
+    <t>Get LevelId  (MstUserLevel) in Numaric  *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get DivisionId  (MstDivision) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get DistrictId  (MstDistricts) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get BlockId  (MstBlock) in Numaric </t>
+  </si>
+  <si>
+    <t>Take OrderNo as String.</t>
+  </si>
+  <si>
+    <t>Take PostingOfficeAddress as String.</t>
+  </si>
+  <si>
+    <t>Take SamviliamOrderNo as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get DesignationTypeId  (MstDesignationType) in Numaric </t>
+  </si>
+  <si>
+    <t>Take input as date</t>
+  </si>
+  <si>
+    <t>Take IncrementMonthNo as Int.</t>
+  </si>
+  <si>
+    <t>For  IsRegular Check.</t>
+  </si>
+  <si>
+    <t>For  IsWorkingOnOtherDepartment Check.</t>
+  </si>
+  <si>
+    <t>For  IsoProvisionExtended Check.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get OISTypeId  (MstOIS) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get PanelId  (MstPanel) in Numaric </t>
+  </si>
+  <si>
+    <t>Take PostingOfficeTypeId as Int.</t>
+  </si>
+  <si>
+    <t>Take ProvisionTypeId as Int.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get SankulId  (MstSchoolRegistration ) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get SubjectId  (MstSubject ) in Numaric </t>
+  </si>
+  <si>
+    <t>Take PostingOfficeCode as String.</t>
+  </si>
+  <si>
+    <t>Take FirstAppBasicPay as Decimal.</t>
+  </si>
+  <si>
+    <t>Get FirstAppBasicPayId  (MstLevelBasicPay) in Numaric  *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get FirstAppBlockId  (MstBlock) in Numaric </t>
+  </si>
+  <si>
+    <t>Take FirstAppDeputationDepartmentName as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get FirstAppDesignationId  (MstDesignation) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get FirstAppDesignationTypeId  (MstDesignationType) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get FirstAppDistrictId  (MstDistricts) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get FirstAppDivisionId  (MstDivision) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get FirstAppGrad_PayId  (MstGradePay) in Numaric </t>
+  </si>
+  <si>
+    <t>Take FirstAppIncrementMonthNo as Int.</t>
+  </si>
+  <si>
+    <t>For  FirstAppIsRegular Check.</t>
+  </si>
+  <si>
+    <t>For  FirstAppIsWorkingOnOtherDepartment Check.</t>
+  </si>
+  <si>
+    <t>For  FirstAppIsoProvisionExtended Check.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get FirstAppOISTypeId  (MstOfficeTypelevels) in Numaric </t>
+  </si>
+  <si>
+    <t>Take FirstAppOrderNo as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get FirstAppPanelId  (MstPanel) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get FirstAppPayScaleId  (MstPayScale) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get FirstAppPay_Commission_Id  (MstPayCommission) in Numaric </t>
+  </si>
+  <si>
+    <t>Take FirstAppPostingOfficeAddress as String.</t>
+  </si>
+  <si>
+    <t>Take FirstAppPostingOfficeCode as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get FirstAppPostingOfficeTypeId  (MstOfficeTypelevels) in Numaric </t>
+  </si>
+  <si>
+    <t>Take FirstAppSamviliamOrderNo as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get FirstAppSankulId  (MstSchoolRegistration ) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get FirstAppSubjectId  (MstSubject ) in Numaric </t>
+  </si>
+  <si>
+    <t>Take DPFNumber as String.</t>
+  </si>
+  <si>
+    <t>Take ProvidentFundType as String.</t>
+  </si>
+  <si>
+    <t>For  IsSameAppointment Check.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,13 +614,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -425,14 +662,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -442,6 +673,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,1617 +993,1793 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="39.28515625" customWidth="1"/>
+    <col min="6" max="6" width="89.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="8" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="C12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="D15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="8" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="8" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="D19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="8" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="D22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="8" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="8" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="C24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="8" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="D26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="8" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="D27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="8" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="D28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="8" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>25</v>
-      </c>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="4">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="D29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="8" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>26</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="D30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="8" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>27</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="C31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="8" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>28</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="D32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>29</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="8" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>30</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="C34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>31</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="D35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="C36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="8" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>33</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="C37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="8" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <v>34</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="C38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="8" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="A39" s="4">
         <v>35</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="D39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="9" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="A40" s="4">
         <v>36</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="C40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="8" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+      <c r="A41" s="4">
         <v>37</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="D41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="8" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="A42" s="4">
         <v>38</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="8" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="A43" s="4">
         <v>39</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="D43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="8" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="A44" s="4">
         <v>40</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="D44" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="9" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="A45" s="4">
         <v>41</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="D45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="8" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+      <c r="A46" s="4">
         <v>42</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="D46" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="9" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+      <c r="A47" s="4">
         <v>43</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="D47" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="8" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+      <c r="A48" s="4">
         <v>44</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="C48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="8" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="A49" s="4">
         <v>45</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="D49" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="9" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+      <c r="A50" s="4">
         <v>46</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="D50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="8" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+      <c r="A51" s="4">
         <v>47</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="C51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="8" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+      <c r="A52" s="4">
         <v>48</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="C52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="8" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+      <c r="A53" s="4">
         <v>49</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="D53" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="9" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+      <c r="A54" s="4">
         <v>50</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="D54" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="9" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
+      <c r="A55" s="4">
         <v>51</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="D55" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="8" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
+      <c r="A56" s="4">
         <v>52</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="C56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="8" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
+      <c r="A57" s="4">
         <v>53</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="C57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="8" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
+      <c r="A58" s="4">
         <v>54</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
+      <c r="D58" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="9" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
+      <c r="A59" s="4">
         <v>55</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="D59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="8" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
+      <c r="A60" s="4">
         <v>56</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
+      <c r="D60" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="8" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
+      <c r="A61" s="4">
         <v>57</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
+      <c r="C61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
+      <c r="A62" s="4">
         <v>58</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
+      <c r="C62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="8" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
+      <c r="A63" s="4">
         <v>59</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
+      <c r="C63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
+      <c r="A64" s="4">
         <v>60</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
+      <c r="D64" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="8" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
+      <c r="A65" s="4">
         <v>61</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
+      <c r="C65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="8" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
+      <c r="A66" s="4">
         <v>62</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
+      <c r="C66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="8" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
+      <c r="A67" s="4">
         <v>63</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
+      <c r="C67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="8" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
+      <c r="A68" s="4">
         <v>64</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="C68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="8" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
+      <c r="A69" s="4">
         <v>65</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
+      <c r="C69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="9"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
+      <c r="A70" s="4">
         <v>66</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
+      <c r="D70" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="9" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
+      <c r="A71" s="4">
         <v>67</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
+      <c r="C71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="8" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
+      <c r="A72" s="4">
         <v>68</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
+      <c r="C72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="8" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
+      <c r="A73" s="4">
         <v>69</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
+      <c r="D73" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="8" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
+      <c r="A74" s="4">
         <v>70</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
+      <c r="D74" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="8" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
+      <c r="A75" s="4">
         <v>71</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
+      <c r="D75" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="8" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
+      <c r="A76" s="4">
         <v>72</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
+      <c r="D76" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="9" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
+      <c r="A77" s="4">
         <v>73</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
+      <c r="C77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
+      <c r="A78" s="4">
         <v>74</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
+      <c r="D78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="8" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
+      <c r="A79" s="4">
         <v>75</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
+      <c r="D79" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="9" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
+      <c r="A80" s="4">
         <v>76</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
+      <c r="D80" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="8" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
+      <c r="A81" s="4">
         <v>77</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
+      <c r="C81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="5"/>
+      <c r="F81" s="8" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
+      <c r="A82" s="4">
         <v>78</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
+      <c r="C82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="5"/>
+      <c r="F82" s="8" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
+      <c r="A83" s="4">
         <v>79</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
+      <c r="C83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="8" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
+      <c r="A84" s="4">
         <v>80</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
+      <c r="D84" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" s="5"/>
+      <c r="F84" s="9" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
+      <c r="A85" s="4">
         <v>81</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
+      <c r="D85" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="5"/>
+      <c r="F85" s="8" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
+      <c r="A86" s="4">
         <v>82</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
+      <c r="D86" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="8" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="6">
+      <c r="A87" s="4">
         <v>83</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C87" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
+      <c r="C87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
+      <c r="A88" s="4">
         <v>84</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C88" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
+      <c r="C88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="8" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="6">
+      <c r="A89" s="4">
         <v>85</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
+      <c r="C89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="6">
+      <c r="A90" s="4">
         <v>86</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
+      <c r="D90" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="9" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="6">
+      <c r="A91" s="4">
         <v>87</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
+      <c r="D91" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E91" s="5"/>
+      <c r="F91" s="8" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="6">
+      <c r="A92" s="4">
         <v>88</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
+      <c r="C92" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="8" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="6">
+      <c r="A93" s="4">
         <v>89</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
+      <c r="C93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="8" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="6">
+      <c r="A94" s="4">
         <v>90</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D94" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
+      <c r="D94" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="9" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
+      <c r="A95" s="4">
         <v>91</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
+      <c r="C95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="6">
+      <c r="A96" s="4">
         <v>92</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
+      <c r="D96" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="5"/>
+      <c r="F96" s="8" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="6">
+      <c r="A97" s="4">
         <v>93</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
+      <c r="D97" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="5"/>
+      <c r="F97" s="8" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="6">
+      <c r="A98" s="4">
         <v>94</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D98" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
+      <c r="D98" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="8" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="6">
+      <c r="A99" s="4">
         <v>95</v>
       </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="6">
+      <c r="A100" s="4">
         <v>96</v>
       </c>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="6">
+      <c r="A101" s="4">
         <v>97</v>
       </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="6">
+      <c r="A102" s="4">
         <v>98</v>
       </c>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F102"/>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HRMS/MstEmployeeOfficialInfo.xlsx
+++ b/HRMS/MstEmployeeOfficialInfo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="199">
   <si>
     <t>Table Name - MstEmployeeOfficialInfo</t>
   </si>
@@ -593,6 +593,27 @@
   </si>
   <si>
     <t>For  IsSameAppointment Check.</t>
+  </si>
+  <si>
+    <t>Take FirstAppTypeOfPostId as Int.</t>
+  </si>
+  <si>
+    <t>Take FirstAppProvisionTypeId as Int.</t>
+  </si>
+  <si>
+    <t>Take FirstAppPostingOfficeId as Int.</t>
+  </si>
+  <si>
+    <t>Take FirstAppLevelId as Int.</t>
+  </si>
+  <si>
+    <t>Take FirstAppEmployeeClassId as Int.</t>
+  </si>
+  <si>
+    <t>Take FirstAppDepartmentId as Int.</t>
+  </si>
+  <si>
+    <t>Take DepartmentId as String.</t>
   </si>
 </sst>
 </file>
@@ -673,12 +694,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -686,6 +701,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,7 +1014,7 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,32 +1027,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1069,7 +1090,7 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1077,7 +1098,7 @@
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1087,7 +1108,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1095,7 +1116,7 @@
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1105,7 +1126,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1113,7 +1134,7 @@
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1123,7 +1144,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1131,7 +1152,7 @@
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1141,7 +1162,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1149,7 +1170,7 @@
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1159,7 +1180,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1167,7 +1188,7 @@
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1177,7 +1198,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1185,7 +1206,7 @@
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1195,7 +1216,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1203,7 +1224,7 @@
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1213,7 +1234,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1231,7 +1252,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1249,7 +1270,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1267,7 +1288,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1285,7 +1306,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1303,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1321,7 +1342,7 @@
         <v>25</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1339,7 +1360,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1357,7 +1378,7 @@
         <v>25</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1375,7 +1396,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1393,7 +1414,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1401,7 +1422,7 @@
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1411,7 +1432,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1419,7 +1440,7 @@
       <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1429,7 +1450,7 @@
         <v>25</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1447,7 +1468,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1465,7 +1486,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="6" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1483,7 +1504,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="6" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1501,7 +1522,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="6" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1519,7 +1540,7 @@
         <v>25</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1527,7 +1548,7 @@
       <c r="A31" s="4">
         <v>27</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1537,7 +1558,7 @@
         <v>25</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1555,7 +1576,7 @@
         <v>25</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="6" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1563,7 +1584,7 @@
       <c r="A33" s="4">
         <v>29</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1573,7 +1594,7 @@
         <v>47</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1591,7 +1612,9 @@
         <v>13</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="8"/>
+      <c r="F34" s="6" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -1607,7 +1630,7 @@
         <v>25</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1615,7 +1638,7 @@
       <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -1625,7 +1648,7 @@
         <v>13</v>
       </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="6" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1633,7 +1656,7 @@
       <c r="A37" s="4">
         <v>33</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -1643,7 +1666,7 @@
         <v>13</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="6" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1651,7 +1674,7 @@
       <c r="A38" s="4">
         <v>34</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1661,7 +1684,7 @@
         <v>13</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="6" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1679,7 +1702,7 @@
         <v>25</v>
       </c>
       <c r="E39" s="5"/>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="7" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1697,7 +1720,7 @@
         <v>47</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="6" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1715,7 +1738,7 @@
         <v>13</v>
       </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="6" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1733,7 +1756,7 @@
         <v>47</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1751,7 +1774,7 @@
         <v>13</v>
       </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1769,7 +1792,7 @@
         <v>25</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="7" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1777,7 +1800,7 @@
       <c r="A45" s="4">
         <v>41</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -1787,7 +1810,7 @@
         <v>13</v>
       </c>
       <c r="E45" s="5"/>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1805,7 +1828,7 @@
         <v>25</v>
       </c>
       <c r="E46" s="5"/>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="7" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1823,7 +1846,7 @@
         <v>25</v>
       </c>
       <c r="E47" s="5"/>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1831,7 +1854,7 @@
       <c r="A48" s="4">
         <v>44</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -1841,7 +1864,7 @@
         <v>13</v>
       </c>
       <c r="E48" s="5"/>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="6" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1859,7 +1882,7 @@
         <v>25</v>
       </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="7" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1877,7 +1900,7 @@
         <v>13</v>
       </c>
       <c r="E50" s="5"/>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="6" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1895,7 +1918,7 @@
         <v>13</v>
       </c>
       <c r="E51" s="5"/>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="6" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1913,7 +1936,7 @@
         <v>13</v>
       </c>
       <c r="E52" s="5"/>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -1931,7 +1954,7 @@
         <v>25</v>
       </c>
       <c r="E53" s="5"/>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="7" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1949,7 +1972,7 @@
         <v>25</v>
       </c>
       <c r="E54" s="5"/>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="7" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1967,7 +1990,7 @@
         <v>25</v>
       </c>
       <c r="E55" s="5"/>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="6" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1975,7 +1998,7 @@
       <c r="A56" s="4">
         <v>52</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -1985,7 +2008,7 @@
         <v>25</v>
       </c>
       <c r="E56" s="5"/>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="6" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1993,7 +2016,7 @@
       <c r="A57" s="4">
         <v>53</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C57" s="5" t="s">
@@ -2003,7 +2026,7 @@
         <v>13</v>
       </c>
       <c r="E57" s="5"/>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="6" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2021,7 +2044,7 @@
         <v>25</v>
       </c>
       <c r="E58" s="5"/>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="7" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2039,7 +2062,7 @@
         <v>13</v>
       </c>
       <c r="E59" s="5"/>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="6" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2057,7 +2080,7 @@
         <v>25</v>
       </c>
       <c r="E60" s="5"/>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="6" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2065,7 +2088,7 @@
       <c r="A61" s="4">
         <v>57</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -2075,7 +2098,7 @@
         <v>25</v>
       </c>
       <c r="E61" s="5"/>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="6" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2083,7 +2106,7 @@
       <c r="A62" s="4">
         <v>58</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -2093,7 +2116,7 @@
         <v>13</v>
       </c>
       <c r="E62" s="5"/>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="6" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2111,7 +2134,9 @@
         <v>13</v>
       </c>
       <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
+      <c r="F63" s="6" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
@@ -2127,7 +2152,7 @@
         <v>25</v>
       </c>
       <c r="E64" s="5"/>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="6" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2135,7 +2160,7 @@
       <c r="A65" s="4">
         <v>61</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -2145,7 +2170,7 @@
         <v>13</v>
       </c>
       <c r="E65" s="5"/>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="6" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2153,7 +2178,7 @@
       <c r="A66" s="4">
         <v>62</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C66" s="5" t="s">
@@ -2163,7 +2188,7 @@
         <v>13</v>
       </c>
       <c r="E66" s="5"/>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="6" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2171,7 +2196,7 @@
       <c r="A67" s="4">
         <v>63</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -2181,7 +2206,7 @@
         <v>13</v>
       </c>
       <c r="E67" s="5"/>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="6" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2189,7 +2214,7 @@
       <c r="A68" s="4">
         <v>64</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -2199,7 +2224,7 @@
         <v>13</v>
       </c>
       <c r="E68" s="5"/>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="6" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2217,7 +2242,9 @@
         <v>13</v>
       </c>
       <c r="E69" s="5"/>
-      <c r="F69" s="9"/>
+      <c r="F69" s="6" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
@@ -2233,7 +2260,7 @@
         <v>25</v>
       </c>
       <c r="E70" s="5"/>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="7" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2241,7 +2268,7 @@
       <c r="A71" s="4">
         <v>67</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -2251,7 +2278,7 @@
         <v>13</v>
       </c>
       <c r="E71" s="5"/>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2269,7 +2296,7 @@
         <v>13</v>
       </c>
       <c r="E72" s="5"/>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="6" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2287,7 +2314,7 @@
         <v>13</v>
       </c>
       <c r="E73" s="5"/>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2305,7 +2332,7 @@
         <v>13</v>
       </c>
       <c r="E74" s="5"/>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="6" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2323,7 +2350,7 @@
         <v>13</v>
       </c>
       <c r="E75" s="5"/>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="6" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2341,7 +2368,7 @@
         <v>25</v>
       </c>
       <c r="E76" s="5"/>
-      <c r="F76" s="9" t="s">
+      <c r="F76" s="7" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2359,13 +2386,15 @@
         <v>25</v>
       </c>
       <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
+      <c r="F77" s="6" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>74</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -2375,7 +2404,7 @@
         <v>13</v>
       </c>
       <c r="E78" s="5"/>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="6" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2393,7 +2422,7 @@
         <v>25</v>
       </c>
       <c r="E79" s="5"/>
-      <c r="F79" s="9" t="s">
+      <c r="F79" s="7" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2411,7 +2440,7 @@
         <v>25</v>
       </c>
       <c r="E80" s="5"/>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="6" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2419,7 +2448,7 @@
       <c r="A81" s="4">
         <v>77</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C81" s="5" t="s">
@@ -2429,7 +2458,7 @@
         <v>13</v>
       </c>
       <c r="E81" s="5"/>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="6" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2437,7 +2466,7 @@
       <c r="A82" s="4">
         <v>78</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C82" s="5" t="s">
@@ -2447,7 +2476,7 @@
         <v>13</v>
       </c>
       <c r="E82" s="5"/>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="6" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2455,7 +2484,7 @@
       <c r="A83" s="4">
         <v>79</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="8" t="s">
         <v>101</v>
       </c>
       <c r="C83" s="5" t="s">
@@ -2465,7 +2494,7 @@
         <v>13</v>
       </c>
       <c r="E83" s="5"/>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="6" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2483,7 +2512,7 @@
         <v>25</v>
       </c>
       <c r="E84" s="5"/>
-      <c r="F84" s="9" t="s">
+      <c r="F84" s="7" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2501,7 +2530,7 @@
         <v>13</v>
       </c>
       <c r="E85" s="5"/>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="6" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2519,7 +2548,7 @@
         <v>13</v>
       </c>
       <c r="E86" s="5"/>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="6" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2537,13 +2566,15 @@
         <v>13</v>
       </c>
       <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
+      <c r="F87" s="6" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>84</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C88" s="5" t="s">
@@ -2553,7 +2584,7 @@
         <v>13</v>
       </c>
       <c r="E88" s="5"/>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="6" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2571,7 +2602,9 @@
         <v>13</v>
       </c>
       <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
+      <c r="F89" s="6" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
@@ -2587,7 +2620,7 @@
         <v>25</v>
       </c>
       <c r="E90" s="5"/>
-      <c r="F90" s="9" t="s">
+      <c r="F90" s="7" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2605,7 +2638,7 @@
         <v>25</v>
       </c>
       <c r="E91" s="5"/>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="6" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2613,7 +2646,7 @@
       <c r="A92" s="4">
         <v>88</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="8" t="s">
         <v>110</v>
       </c>
       <c r="C92" s="5" t="s">
@@ -2623,7 +2656,7 @@
         <v>25</v>
       </c>
       <c r="E92" s="5"/>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="6" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2631,7 +2664,7 @@
       <c r="A93" s="4">
         <v>89</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C93" s="5" t="s">
@@ -2641,7 +2674,7 @@
         <v>13</v>
       </c>
       <c r="E93" s="5"/>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="6" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2659,7 +2692,7 @@
         <v>25</v>
       </c>
       <c r="E94" s="5"/>
-      <c r="F94" s="9" t="s">
+      <c r="F94" s="7" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2677,7 +2710,9 @@
         <v>13</v>
       </c>
       <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
+      <c r="F95" s="6" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
@@ -2693,7 +2728,7 @@
         <v>25</v>
       </c>
       <c r="E96" s="5"/>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2711,7 +2746,7 @@
         <v>25</v>
       </c>
       <c r="E97" s="5"/>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2729,7 +2764,7 @@
         <v>13</v>
       </c>
       <c r="E98" s="5"/>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="6" t="s">
         <v>191</v>
       </c>
     </row>

--- a/HRMS/MstEmployeeOfficialInfo.xlsx
+++ b/HRMS/MstEmployeeOfficialInfo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="200">
   <si>
     <t>Table Name - MstEmployeeOfficialInfo</t>
   </si>
@@ -614,13 +614,16 @@
   </si>
   <si>
     <t>Take DepartmentId as String.</t>
+  </si>
+  <si>
+    <t>Note : The Colored column  denoted as dependent Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,6 +644,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -656,7 +667,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -679,11 +690,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -706,6 +754,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2769,14 +2826,14 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
-        <v>95</v>
-      </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
+      <c r="A99" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="13"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
@@ -2810,9 +2867,10 @@
     </row>
   </sheetData>
   <autoFilter ref="F1:F102"/>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A99:F99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/HRMS/MstEmployeeOfficialInfo.xlsx
+++ b/HRMS/MstEmployeeOfficialInfo.xlsx
@@ -22,9 +22,6 @@
     <t>Table Name - MstEmployeeOfficialInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Defination : </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -617,6 +614,9 @@
   </si>
   <si>
     <t>Note : The Colored column  denoted as dependent Table</t>
+  </si>
+  <si>
+    <t>Defination : इस तालिका में कर्मचारी ऑफिस की  जानकारी का विवरण संग्रहीत है।</t>
   </si>
 </sst>
 </file>
@@ -1070,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:F99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1113,22 +1113,22 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1136,19 +1136,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1156,17 +1156,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1174,17 +1174,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1192,17 +1192,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1210,17 +1210,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1228,17 +1228,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1246,17 +1246,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1264,17 +1264,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1282,17 +1282,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1300,17 +1300,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1318,17 +1318,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1336,17 +1336,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1354,17 +1354,17 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1372,17 +1372,17 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1390,17 +1390,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1408,17 +1408,17 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1426,17 +1426,17 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1444,17 +1444,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1462,17 +1462,17 @@
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1480,17 +1480,17 @@
         <v>20</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1498,17 +1498,17 @@
         <v>21</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1516,17 +1516,17 @@
         <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="D26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1534,17 +1534,17 @@
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1552,17 +1552,17 @@
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1570,17 +1570,17 @@
         <v>25</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1588,17 +1588,17 @@
         <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="D30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1606,17 +1606,17 @@
         <v>27</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1624,17 +1624,17 @@
         <v>28</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1642,17 +1642,17 @@
         <v>29</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1660,17 +1660,17 @@
         <v>30</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1678,17 +1678,17 @@
         <v>31</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="D35" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1696,17 +1696,17 @@
         <v>32</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1714,17 +1714,17 @@
         <v>33</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1732,17 +1732,17 @@
         <v>34</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1750,17 +1750,17 @@
         <v>35</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1768,17 +1768,17 @@
         <v>36</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1786,17 +1786,17 @@
         <v>37</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1804,17 +1804,17 @@
         <v>38</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1822,17 +1822,17 @@
         <v>39</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1840,17 +1840,17 @@
         <v>40</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1858,17 +1858,17 @@
         <v>41</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="D45" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1876,17 +1876,17 @@
         <v>42</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1894,17 +1894,17 @@
         <v>43</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1912,17 +1912,17 @@
         <v>44</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1930,17 +1930,17 @@
         <v>45</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1948,17 +1948,17 @@
         <v>46</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="D50" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1966,17 +1966,17 @@
         <v>47</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1984,17 +1984,17 @@
         <v>48</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2002,17 +2002,17 @@
         <v>49</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2020,17 +2020,17 @@
         <v>50</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2038,17 +2038,17 @@
         <v>51</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2056,17 +2056,17 @@
         <v>52</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2074,17 +2074,17 @@
         <v>53</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2092,17 +2092,17 @@
         <v>54</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2110,17 +2110,17 @@
         <v>55</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="D59" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2128,17 +2128,17 @@
         <v>56</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2146,17 +2146,17 @@
         <v>57</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2164,17 +2164,17 @@
         <v>58</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2182,17 +2182,17 @@
         <v>59</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2200,17 +2200,17 @@
         <v>60</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2218,17 +2218,17 @@
         <v>61</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2236,17 +2236,17 @@
         <v>62</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2254,17 +2254,17 @@
         <v>63</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2272,17 +2272,17 @@
         <v>64</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2290,17 +2290,17 @@
         <v>65</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2308,17 +2308,17 @@
         <v>66</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2326,17 +2326,17 @@
         <v>67</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2344,17 +2344,17 @@
         <v>68</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2362,17 +2362,17 @@
         <v>69</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2380,17 +2380,17 @@
         <v>70</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2398,17 +2398,17 @@
         <v>71</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2416,17 +2416,17 @@
         <v>72</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2434,17 +2434,17 @@
         <v>73</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2452,17 +2452,17 @@
         <v>74</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2470,17 +2470,17 @@
         <v>75</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2488,17 +2488,17 @@
         <v>76</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2506,17 +2506,17 @@
         <v>77</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2524,17 +2524,17 @@
         <v>78</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2542,17 +2542,17 @@
         <v>79</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2560,17 +2560,17 @@
         <v>80</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2578,17 +2578,17 @@
         <v>81</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2596,17 +2596,17 @@
         <v>82</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2614,17 +2614,17 @@
         <v>83</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2632,17 +2632,17 @@
         <v>84</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2650,17 +2650,17 @@
         <v>85</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2668,17 +2668,17 @@
         <v>86</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2686,17 +2686,17 @@
         <v>87</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2704,17 +2704,17 @@
         <v>88</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2722,17 +2722,17 @@
         <v>89</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2740,17 +2740,17 @@
         <v>90</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2758,17 +2758,17 @@
         <v>91</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2776,17 +2776,17 @@
         <v>92</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2794,17 +2794,17 @@
         <v>93</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="D97" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2812,22 +2812,22 @@
         <v>94</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
